--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-289324.9766344809</v>
+        <v>-291212.5581508823</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13571943.41518538</v>
+        <v>13571943.41518537</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>165.3091668543549</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>269.0100984637406</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034764</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>8.777525990011505</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>123.9004294058867</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>244.8128534859553</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481177</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>42.82230210090769</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,19 +1054,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>153.0555388225927</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>54.89632529172484</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>172.2570308432512</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,16 +1190,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>130.545020725482</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>9.018650084624946</v>
       </c>
       <c r="S10" t="n">
-        <v>201.0891638436807</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1464,10 +1464,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1531,16 +1531,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>122.6519788371617</v>
+        <v>135.8070937148556</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1701,10 +1701,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>155.8385935972302</v>
       </c>
       <c r="W16" t="n">
-        <v>73.94793599547575</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>143.2925104849744</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>82.55407911893398</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>123.1663911814753</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>25.11214729583543</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750034</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>83.53884904317061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>97.25485015768727</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801217</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437425</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>8.517127121911377</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571497</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523577</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>155.2152115967824</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
         <v>231.0340957700203</v>
@@ -3013,7 +3013,7 @@
         <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235378</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789509</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1241.158393318536</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C2" t="n">
-        <v>1241.158393318536</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117851</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117851</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036443</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036443</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.992646913851</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.992646913851</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2353.992646913851</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2001.223991643737</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="X2" t="n">
-        <v>1627.758233382657</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="Y2" t="n">
-        <v>1627.758233382657</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4404,22 +4404,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615926</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537796</v>
@@ -4428,28 +4428,28 @@
         <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430046</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027575</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027575</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027575</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036443</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036443</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036443</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036443</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.128984206434</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.128984206434</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.128984206434</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>719.2627963377355</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U4" t="n">
-        <v>719.2627963377355</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="V4" t="n">
-        <v>719.2627963377355</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="W4" t="n">
-        <v>429.8456263007749</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="X4" t="n">
-        <v>201.8560754027575</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027575</v>
+        <v>359.2716929833838</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1405.321187657107</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4562,55 +4562,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500976</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2168.926277893999</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.926277893999</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X5" t="n">
-        <v>1795.460519632919</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y5" t="n">
-        <v>1405.321187657107</v>
+        <v>1992.620445413572</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641996</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598714</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>391.878965009939</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>573.5274298401787</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>573.5274298401787</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>573.5274298401787</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>573.5274298401787</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X7" t="n">
-        <v>573.5274298401787</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="Y7" t="n">
-        <v>573.5274298401787</v>
+        <v>383.5045402329973</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632.3182666762915</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C8" t="n">
-        <v>632.3182666762915</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762915</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2468.123400696947</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2249.488733669009</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>1995.726948307101</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284806</v>
+        <v>1995.726948307101</v>
       </c>
       <c r="W8" t="n">
-        <v>1540.921096014692</v>
+        <v>1642.958293036987</v>
       </c>
       <c r="X8" t="n">
-        <v>1409.057438716225</v>
+        <v>1269.492534775907</v>
       </c>
       <c r="Y8" t="n">
-        <v>1018.918106740413</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>719.019236646207</v>
       </c>
       <c r="S10" t="n">
-        <v>525.0086166875648</v>
+        <v>719.019236646207</v>
       </c>
       <c r="T10" t="n">
-        <v>525.0086166875648</v>
+        <v>719.019236646207</v>
       </c>
       <c r="U10" t="n">
-        <v>525.0086166875648</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="V10" t="n">
-        <v>525.0086166875648</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="W10" t="n">
-        <v>235.5914466506042</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5021,43 +5021,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823717</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514029</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795203</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5103,40 +5103,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>190.6805289025613</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>339.7502131046217</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>953.647282861511</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1722.015429253973</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918007</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136704</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918914</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>221.1079791745906</v>
+        <v>699.5778825909696</v>
       </c>
       <c r="C13" t="n">
-        <v>221.1079791745906</v>
+        <v>699.5778825909696</v>
       </c>
       <c r="D13" t="n">
-        <v>221.1079791745906</v>
+        <v>549.4612431786339</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5197,52 +5197,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.13085534741</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609681</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550813</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181207</v>
+        <v>920.3704617344997</v>
       </c>
       <c r="X13" t="n">
-        <v>441.9005583181207</v>
+        <v>920.3704617344997</v>
       </c>
       <c r="Y13" t="n">
-        <v>221.1079791745906</v>
+        <v>699.5778825909696</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
         <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5340,40 +5340,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>154.387837181405</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>303.4575213834654</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>550.2226492899301</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>857.5427825698926</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834044</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136704</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918914</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>564.1830073829216</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5437,49 +5437,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.497233179937</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471201</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473457</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.210845262963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570761</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="W16" t="n">
-        <v>745.8314722131613</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X16" t="n">
-        <v>745.8314722131613</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y16" t="n">
-        <v>745.8314722131613</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.319011615588</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>966.6932390011339</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N18" t="n">
-        <v>1771.104817265285</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O18" t="n">
-        <v>2050.644882483982</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.2699138005285</v>
+        <v>579.0685056491544</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>410.1323227212475</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>410.1323227212475</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>410.1323227212475</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5674,10 +5674,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5692,31 +5692,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>926.4796629810191</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>637.0624929440586</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X19" t="n">
-        <v>637.0624929440586</v>
+        <v>981.5095496229243</v>
       </c>
       <c r="Y19" t="n">
-        <v>416.2699138005285</v>
+        <v>760.7169704793941</v>
       </c>
     </row>
     <row r="20">
@@ -5750,13 +5750,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5768,13 +5768,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>190.6805289025654</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>339.7502131046252</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>953.6472828615139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>732.358329063101</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C22" t="n">
-        <v>563.4221461351941</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5908,7 +5908,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688071</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>1275.130855347408</v>
+        <v>820.5263570570734</v>
       </c>
       <c r="W22" t="n">
-        <v>985.7136853104473</v>
+        <v>820.5263570570734</v>
       </c>
       <c r="X22" t="n">
-        <v>757.72413441243</v>
+        <v>592.536806159056</v>
       </c>
       <c r="Y22" t="n">
-        <v>732.358329063101</v>
+        <v>371.7442270155259</v>
       </c>
     </row>
     <row r="23">
@@ -5975,46 +5975,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W25" t="n">
-        <v>496.665036439558</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,22 +6212,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6245,16 +6245,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>492.4609007520344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6391,43 +6391,43 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473454</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687012</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>1009.867621687012</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>720.4504516500517</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>492.4609007520344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>492.4609007520344</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6455,58 +6455,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>506.0881760231935</v>
+        <v>439.532429954217</v>
       </c>
       <c r="C31" t="n">
-        <v>392.9128583766574</v>
+        <v>439.532429954217</v>
       </c>
       <c r="D31" t="n">
-        <v>392.9128583766574</v>
+        <v>439.532429954217</v>
       </c>
       <c r="E31" t="n">
-        <v>300.7606300756349</v>
+        <v>347.3802016531946</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590952</v>
+        <v>256.251119436655</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
         <v>997.668872196205</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1635.183876236046</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1401.816102730975</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1202.892479806458</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>969.2361750508685</v>
+        <v>902.680428981892</v>
       </c>
       <c r="X31" t="n">
-        <v>797.007489434222</v>
+        <v>730.4517433652453</v>
       </c>
       <c r="Y31" t="n">
-        <v>631.9757755720625</v>
+        <v>565.420029503086</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,22 +6710,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,55 +6932,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.884739850452</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
@@ -7172,13 +7172,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515098</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7312,16 +7312,16 @@
         <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,10 +7333,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7348,16 +7348,16 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1632.773754790662</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>2302.237516093321</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2507.25999687553</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7579,7 +7579,7 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108323</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229664</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,10 +7825,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010309</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142006</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142018</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>52.49733361304808</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987297522</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>15.83804904622354</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,13 +9012,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>199.7396287231156</v>
       </c>
       <c r="P18" t="n">
-        <v>283.6093329825492</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>52.49733361305248</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>199.7396287231157</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9893,10 +9893,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>199.7396287231155</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>369.089388049373</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>297.3877236703344</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>349.7653003338568</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>96.03744927814711</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>29.47535963978235</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>96.03744927814711</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23419,22 +23419,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>23.78198380940746</v>
+        <v>10.62686893171357</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>96.29904972659784</v>
       </c>
       <c r="W16" t="n">
-        <v>212.5750623411153</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>2.128537537956807</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,22 +23938,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>169.583564204894</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>56.66558900046202</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>193.4725060562594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24415,22 +24415,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338587</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>135.0458043089242</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,16 +24601,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>69.99197094094056</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24649,16 +24649,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965536</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>102.7731847129092</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897913</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571497</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523578</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>11.12909283304989</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1141113.211204787</v>
+        <v>1141113.211204788</v>
       </c>
     </row>
     <row r="7">
@@ -26314,10 +26314,10 @@
         <v>246312.5309592849</v>
       </c>
       <c r="C2" t="n">
+        <v>246312.5309592849</v>
+      </c>
+      <c r="D2" t="n">
         <v>246312.5309592848</v>
-      </c>
-      <c r="D2" t="n">
-        <v>246312.5309592849</v>
       </c>
       <c r="E2" t="n">
         <v>234617.4358426252</v>
@@ -26326,34 +26326,34 @@
         <v>234617.4358426252</v>
       </c>
       <c r="G2" t="n">
-        <v>234617.4358426251</v>
+        <v>234617.4358426252</v>
       </c>
       <c r="H2" t="n">
         <v>234617.4358426252</v>
       </c>
       <c r="I2" t="n">
+        <v>234617.4358426253</v>
+      </c>
+      <c r="J2" t="n">
         <v>234617.4358426252</v>
       </c>
-      <c r="J2" t="n">
-        <v>234617.4358426253</v>
-      </c>
       <c r="K2" t="n">
-        <v>244093.2824071617</v>
+        <v>244093.2824071619</v>
       </c>
       <c r="L2" t="n">
+        <v>246312.5309592852</v>
+      </c>
+      <c r="M2" t="n">
         <v>246312.5309592851</v>
       </c>
-      <c r="M2" t="n">
-        <v>246312.530959285</v>
-      </c>
       <c r="N2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.5309592852</v>
       </c>
       <c r="P2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.5309592852</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145442</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768973</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284561</v>
+        <v>44162.60530284562</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086691</v>
+        <v>10342.90680086693</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284562</v>
       </c>
     </row>
     <row r="4">
@@ -26418,37 +26418,37 @@
         <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007469</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007463</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007446</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007497</v>
+        <v>7916.731656007545</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007488</v>
+        <v>7916.731656007528</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020398</v>
+        <v>26081.35417020401</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732793</v>
+        <v>30335.51889732803</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732797</v>
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-574431.4750345896</v>
+        <v>-574431.4750345898</v>
       </c>
       <c r="C6" t="n">
-        <v>15536.40417995448</v>
+        <v>15536.40417995461</v>
       </c>
       <c r="D6" t="n">
-        <v>15536.40417995435</v>
+        <v>15536.40417995455</v>
       </c>
       <c r="E6" t="n">
-        <v>-390446.6582389962</v>
+        <v>-390544.1173649672</v>
       </c>
       <c r="F6" t="n">
-        <v>134713.3782379011</v>
+        <v>134615.9191119289</v>
       </c>
       <c r="G6" t="n">
-        <v>134713.378237902</v>
+        <v>134615.9191119289</v>
       </c>
       <c r="H6" t="n">
-        <v>134713.3782379011</v>
+        <v>134615.9191119288</v>
       </c>
       <c r="I6" t="n">
-        <v>134713.3782379011</v>
+        <v>134615.919111929</v>
       </c>
       <c r="J6" t="n">
-        <v>-41709.8409546918</v>
+        <v>-41807.30008066393</v>
       </c>
       <c r="K6" t="n">
-        <v>77221.11440388937</v>
+        <v>77202.62066595507</v>
       </c>
       <c r="L6" t="n">
-        <v>107918.9994410648</v>
+        <v>107918.9994410649</v>
       </c>
       <c r="M6" t="n">
-        <v>-16539.10899190551</v>
+        <v>-16539.10899190538</v>
       </c>
       <c r="N6" t="n">
         <v>118261.9062419316</v>
       </c>
       <c r="O6" t="n">
-        <v>118261.9062419317</v>
+        <v>118261.9062419318</v>
       </c>
       <c r="P6" t="n">
-        <v>74099.30093908617</v>
+        <v>74099.30093908618</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26762,16 +26762,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108363</v>
+        <v>12.92863350108367</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237015</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481177</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>51.13915350330294</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>80.23087025367244</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853703</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491434</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>216.2575794680728</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>162.381444836091</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>137.9209881775253</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>284.9299563692272</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27774,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853703</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491434</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,10 +27825,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>71.97956663549155</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>170.8133300973123</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>2.158681965720319</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>239.186079952987</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,25 +28056,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>137.6465418955329</v>
       </c>
       <c r="S10" t="n">
-        <v>11.05637510633818</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31045,40 +31045,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361502</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263754</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361502</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263754</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34699,25 +34699,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770686</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031297</v>
+        <v>138.3897561047518</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770686</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047529</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.811094813734</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349844</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.40751256795505</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879397</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594841</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004669</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315253</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850745</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299101</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349123</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>57.74822800113051</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879397</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504671</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415672</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178385</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315253</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850745</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>482.1033309642237</v>
       </c>
       <c r="P18" t="n">
-        <v>490.7027479140739</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.40751256795913</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
@@ -36215,10 +36215,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>532.9342021211286</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36613,10 +36613,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>483.6693559063411</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>510.1640057735818</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>618.3470930053974</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>630.5822970683473</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>682.9598737318697</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>117.4883924248565</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38035,7 +38035,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349808</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
